--- a/biology/Virologie/Virus_Ilheus/Virus_Ilheus.xlsx
+++ b/biology/Virologie/Virus_Ilheus/Virus_Ilheus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le virus Ilheus (ILHV) est un arbovirus membre de la famille des Flaviviridae et du genre Flavivirus. Transmis par les moustiques, il est responsable de fièvre, myalgie, maux de tête et malaise[1]. Il tire son nom  de la ville brésilienne Ilhéus située sur le littoral sud de l'État de Bahia[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le virus Ilheus (ILHV) est un arbovirus membre de la famille des Flaviviridae et du genre Flavivirus. Transmis par les moustiques, il est responsable de fièvre, myalgie, maux de tête et malaise. Il tire son nom  de la ville brésilienne Ilhéus située sur le littoral sud de l'État de Bahia.
 </t>
         </is>
       </c>
